--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MatthewHarden\Documents\UiPath\NetHealthExpenseReports\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5877F2-706C-401A-BFC9-5BB8504B5F76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993FFB77-20DF-42B1-9068-8CC5F9FF619C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -222,7 +222,10 @@
     <t>BusinessRuleExceptionEmail</t>
   </si>
   <si>
-    <t>Email Address to send a notification if an exception occurs</t>
+    <t xml:space="preserve">Email Address to send a notification if an exception occurs, </t>
+  </si>
+  <si>
+    <t>matthewcharden@outlook.com</t>
   </si>
 </sst>
 </file>
@@ -274,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -284,6 +287,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,7 +605,7 @@
   <dimension ref="A1:Z984"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -695,8 +699,8 @@
       <c r="A7" t="s">
         <v>64</v>
       </c>
-      <c r="B7" t="s">
-        <v>33</v>
+      <c r="B7" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
@@ -868,7 +872,11 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
